--- a/Model_Saved/GpyOpt_hyperparameter_YW_master/BO_hyperparamete_sort.xlsx
+++ b/Model_Saved/GpyOpt_hyperparameter_YW_master/BO_hyperparamete_sort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G225"/>
+  <dimension ref="A1:G232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8567408948426365</v>
+        <v>0.7850685022043948</v>
       </c>
       <c r="C2" t="n">
-        <v>11.92543888092041</v>
+        <v>2.938757181167603</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -493,22 +493,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8247580579083874</v>
+        <v>0.7846388964955856</v>
       </c>
       <c r="C3" t="n">
-        <v>14.58781147003174</v>
+        <v>2.82480525970459</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1388131506564844</v>
+        <v>0.1692661685983793</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8241400280940911</v>
+        <v>0.7575507233943819</v>
       </c>
       <c r="C4" t="n">
-        <v>14.63925933837891</v>
+        <v>3.030731201171875</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +539,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8230787257480252</v>
+        <v>0.756120903384522</v>
       </c>
       <c r="C5" t="n">
-        <v>14.72760581970215</v>
+        <v>2.823564529418945</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2303287190989408</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -562,19 +562,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8223394494741669</v>
+        <v>0.7553822047948342</v>
       </c>
       <c r="C6" t="n">
-        <v>14.78914833068848</v>
+        <v>20.3629264831543</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>256</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2546285130574518</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8190795379518029</v>
+        <v>0.7536991800041509</v>
       </c>
       <c r="C7" t="n">
-        <v>15.06051445007324</v>
+        <v>20.50303077697754</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>256</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2023918293897234</v>
+        <v>0.2744586587519191</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -608,19 +608,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7932332465299983</v>
+        <v>0.7518826199654607</v>
       </c>
       <c r="C8" t="n">
-        <v>17.21205902099609</v>
+        <v>20.65424346923828</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3389335775731437</v>
+        <v>0.103594439067022</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -631,22 +631,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.780674127575268</v>
+        <v>0.7456487287446556</v>
       </c>
       <c r="C9" t="n">
-        <v>18.25753211975098</v>
+        <v>3.180512428283691</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1382420043086884</v>
+        <v>0.2478204659677229</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -654,19 +654,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7763557156791583</v>
+        <v>0.7450190422457275</v>
       </c>
       <c r="C10" t="n">
-        <v>18.61701011657715</v>
+        <v>21.22559547424316</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3191283882450334</v>
+        <v>0.3389335775731437</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7527690525646924</v>
+        <v>0.7367948179871752</v>
       </c>
       <c r="C11" t="n">
-        <v>20.5804557800293</v>
+        <v>3.203798294067383</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4826611870856944</v>
+        <v>0.2955216270348653</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -700,19 +700,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7510780322671761</v>
+        <v>0.7367848351334316</v>
       </c>
       <c r="C12" t="n">
-        <v>20.72122573852539</v>
+        <v>21.91104507446289</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2744586587519191</v>
+        <v>0.4826611870856944</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -723,10 +723,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7487895876455735</v>
+        <v>0.7319166623843668</v>
       </c>
       <c r="C13" t="n">
-        <v>3.047326564788818</v>
+        <v>3.217288732528687</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -735,7 +735,7 @@
         <v>32</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1692661685983793</v>
+        <v>0.1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -746,19 +746,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.743215507299397</v>
+        <v>0.730205652170641</v>
       </c>
       <c r="C14" t="n">
-        <v>21.37573051452637</v>
+        <v>22.45871543884277</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2657404050395779</v>
+        <v>0.1176640231725998</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -769,19 +769,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.740361079249186</v>
+        <v>0.7261216096164369</v>
       </c>
       <c r="C15" t="n">
-        <v>21.61334419250488</v>
+        <v>22.79869079589844</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1176640231725998</v>
+        <v>0.2546285130574518</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7306523260765898</v>
+        <v>0.723990552793389</v>
       </c>
       <c r="C16" t="n">
-        <v>22.42153549194336</v>
+        <v>22.97608947753906</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4650768118061606</v>
+        <v>0.1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -815,10 +815,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7094114451199571</v>
+        <v>0.7007326498641573</v>
       </c>
       <c r="C17" t="n">
-        <v>24.18971252441406</v>
+        <v>24.91216659545898</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -838,10 +838,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6812437310481189</v>
+        <v>0.6223380606663053</v>
       </c>
       <c r="C18" t="n">
-        <v>3.968453168869019</v>
+        <v>4.222705841064453</v>
       </c>
       <c r="D18" t="n">
         <v>3</v>
@@ -861,65 +861,65 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6791245412391571</v>
+        <v>0.5336126265529072</v>
       </c>
       <c r="C19" t="n">
-        <v>26.71090698242188</v>
+        <v>4.900310039520264</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="F19" t="n">
-        <v>0.103594439067022</v>
+        <v>0.4795909227126252</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6216658998174125</v>
+        <v>0.8354837303417733</v>
       </c>
       <c r="C20" t="n">
-        <v>4.42747163772583</v>
+        <v>13.69496536254883</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4795909227126252</v>
+        <v>0.2409059108475838</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>0.851361115601841</v>
+        <v>0.8336874888610346</v>
       </c>
       <c r="C21" t="n">
-        <v>2.249814510345459</v>
+        <v>2.501179218292236</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1473720798462884</v>
+        <v>0.1080873589761303</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -927,91 +927,91 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>0.83627309364471</v>
+        <v>0.8206756103315502</v>
       </c>
       <c r="C22" t="n">
-        <v>13.6292552947998</v>
+        <v>2.442119598388672</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2726884122665229</v>
+        <v>0.1538242544093416</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8345989922559773</v>
+        <v>0.8148340388524963</v>
       </c>
       <c r="C23" t="n">
-        <v>2.47944450378418</v>
+        <v>15.41392612457275</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2104941222220301</v>
+        <v>0.3197587171073427</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8314457192315862</v>
+        <v>0.8102612173977443</v>
       </c>
       <c r="C24" t="n">
-        <v>14.03110599517822</v>
+        <v>2.549020767211914</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2353229041867342</v>
+        <v>0.1625624189646188</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8287622250913038</v>
+        <v>0.7990907829806531</v>
       </c>
       <c r="C25" t="n">
-        <v>14.25449180603027</v>
+        <v>16.72445487976074</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2126507932562609</v>
+        <v>0.1</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1019,36 +1019,36 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8280674473276802</v>
+        <v>0.7925538222931371</v>
       </c>
       <c r="C26" t="n">
-        <v>14.31232738494873</v>
+        <v>2.808699131011963</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F26" t="n">
-        <v>0.257976889996488</v>
+        <v>0.2588982782582465</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8273489996054547</v>
+        <v>0.7877244081950316</v>
       </c>
       <c r="C27" t="n">
-        <v>14.37213516235352</v>
+        <v>17.67064094543457</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -1057,7 +1057,7 @@
         <v>256</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2712610179385123</v>
+        <v>0.1944099623464837</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1065,22 +1065,22 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8207606829088567</v>
+        <v>0.7876728825192298</v>
       </c>
       <c r="C28" t="n">
-        <v>2.377495288848877</v>
+        <v>2.505453586578369</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1166327409543539</v>
+        <v>0.1316373631804034</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1088,36 +1088,36 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8194919636563589</v>
+        <v>0.7833471379996964</v>
       </c>
       <c r="C29" t="n">
-        <v>15.0261812210083</v>
+        <v>2.552635908126831</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2231882236461333</v>
+        <v>0.1668834490866457</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8181693057799271</v>
+        <v>0.7789374699194571</v>
       </c>
       <c r="C30" t="n">
-        <v>15.13628768920898</v>
+        <v>18.40209770202637</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>
@@ -1126,7 +1126,7 @@
         <v>256</v>
       </c>
       <c r="F30" t="n">
-        <v>0.271129080631501</v>
+        <v>0.3824155205581832</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1134,45 +1134,45 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8163548156549418</v>
+        <v>0.7781443904097028</v>
       </c>
       <c r="C31" t="n">
-        <v>15.28733444213867</v>
+        <v>2.633239984512329</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2775444906011038</v>
+        <v>0.2134613304219383</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8144769873184975</v>
+        <v>0.7764240751507996</v>
       </c>
       <c r="C32" t="n">
-        <v>15.44364929199219</v>
+        <v>18.6113166809082</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2233836730151339</v>
+        <v>0.1086949809733253</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1180,45 +1180,45 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8131928462452488</v>
+        <v>0.7743936584877763</v>
       </c>
       <c r="C33" t="n">
-        <v>15.55054473876953</v>
+        <v>2.76287055015564</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1614222057787262</v>
+        <v>0.1</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8111600623358255</v>
+        <v>0.7713010795940675</v>
       </c>
       <c r="C34" t="n">
-        <v>15.71976280212402</v>
+        <v>19.03777503967285</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2017129713503406</v>
+        <v>0.3268612082824804</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1226,22 +1226,22 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8079491582281164</v>
+        <v>0.7706696041866192</v>
       </c>
       <c r="C35" t="n">
-        <v>15.98705196380615</v>
+        <v>19.09034156799316</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>256</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4795443898135195</v>
+        <v>0.1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1249,45 +1249,45 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7988304179502662</v>
+        <v>0.768982368386968</v>
       </c>
       <c r="C36" t="n">
-        <v>2.538972854614258</v>
+        <v>19.23079681396484</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1</v>
+        <v>0.1897005938472785</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7982350461347372</v>
+        <v>0.7667444115105571</v>
       </c>
       <c r="C37" t="n">
-        <v>16.79569053649902</v>
+        <v>19.41709136962891</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2254753332895967</v>
+        <v>0.2300800448917232</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1295,22 +1295,22 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7979592664225732</v>
+        <v>0.7597721211388071</v>
       </c>
       <c r="C38" t="n">
-        <v>16.81864738464355</v>
+        <v>19.99749183654785</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3425883696799379</v>
+        <v>0.3763168548134038</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1318,22 +1318,22 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7841548060412825</v>
+        <v>0.7593666040983305</v>
       </c>
       <c r="C39" t="n">
-        <v>17.9677848815918</v>
+        <v>20.03124809265137</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>256</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2035769317392593</v>
+        <v>0.251807703590101</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7788582369603558</v>
+        <v>0.7575554745219453</v>
       </c>
       <c r="C40" t="n">
-        <v>2.687880039215088</v>
+        <v>3.104669809341431</v>
       </c>
       <c r="D40" t="n">
         <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1885081208838172</v>
+        <v>0.1</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1364,22 +1364,22 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7774795719740248</v>
+        <v>0.7566015510225724</v>
       </c>
       <c r="C41" t="n">
-        <v>2.857939958572388</v>
+        <v>2.886707305908203</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
         <v>128</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1080873589761303</v>
+        <v>0.4122116705145822</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1387,22 +1387,22 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7716891410155292</v>
+        <v>0.7543630802654768</v>
       </c>
       <c r="C42" t="n">
-        <v>2.706879854202271</v>
+        <v>3.140328168869019</v>
       </c>
       <c r="D42" t="n">
         <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3107112862667633</v>
+        <v>0.2218136084107341</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1410,22 +1410,22 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B43" t="n">
-        <v>0.765093061420913</v>
+        <v>0.751246347580754</v>
       </c>
       <c r="C43" t="n">
-        <v>3.091732740402222</v>
+        <v>2.799224138259888</v>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
         <v>128</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1927967225411147</v>
+        <v>0.3177498369859888</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7605837138923494</v>
+        <v>0.7444797395781275</v>
       </c>
       <c r="C44" t="n">
-        <v>19.92993354797363</v>
+        <v>21.27049255371094</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1456,22 +1456,22 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7558410564613904</v>
+        <v>0.7426313211572508</v>
       </c>
       <c r="C45" t="n">
-        <v>2.911092042922974</v>
+        <v>3.300534725189209</v>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
         <v>128</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1968624275876646</v>
+        <v>0.1</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1479,45 +1479,45 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7520883846923374</v>
+        <v>0.739556814251489</v>
       </c>
       <c r="C46" t="n">
-        <v>2.829745531082153</v>
+        <v>21.68029022216797</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4122116705145822</v>
+        <v>0.1348517198806163</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47" t="n">
-        <v>0.750546093074612</v>
+        <v>0.7320982713588751</v>
       </c>
       <c r="C47" t="n">
-        <v>3.030411958694458</v>
+        <v>2.914422512054443</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1904828860022601</v>
+        <v>0.3449212476344344</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -1525,114 +1525,114 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7490835938338237</v>
+        <v>0.7285900510306274</v>
       </c>
       <c r="C48" t="n">
-        <v>20.88724708557129</v>
+        <v>2.80937933921814</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2410475263297006</v>
+        <v>0.2946359181448105</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7421731083687415</v>
+        <v>0.7157690183433113</v>
       </c>
       <c r="C49" t="n">
-        <v>2.871495246887207</v>
+        <v>23.66047668457031</v>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>128</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2235675553073418</v>
+        <v>0.1798673398598858</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B50" t="n">
-        <v>0.740657275693797</v>
+        <v>0.7146603694570818</v>
       </c>
       <c r="C50" t="n">
-        <v>21.58868598937988</v>
+        <v>3.332615375518799</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1348517198806163</v>
+        <v>0.4330479382191752</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7363841646741451</v>
+        <v>0.7133218593380137</v>
       </c>
       <c r="C51" t="n">
-        <v>3.2197425365448</v>
+        <v>23.86419105529785</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
         <v>128</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3132497358645218</v>
+        <v>0.5</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7318416433965085</v>
+        <v>0.7080504253926048</v>
       </c>
       <c r="C52" t="n">
-        <v>22.32253456115723</v>
+        <v>24.30300712585449</v>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1473097703475733</v>
+        <v>0.4602280587624319</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1640,22 +1640,22 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B53" t="n">
-        <v>0.729543069175529</v>
+        <v>0.6998492582780816</v>
       </c>
       <c r="C53" t="n">
-        <v>22.51387786865234</v>
+        <v>24.98570251464844</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>64</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3798940111267355</v>
+        <v>0.3066219898440362</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1663,22 +1663,22 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7288545456693829</v>
+        <v>0.6835636475578496</v>
       </c>
       <c r="C54" t="n">
-        <v>3.576809644699097</v>
+        <v>3.768515825271606</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E54" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4330479382191752</v>
+        <v>0.3745051000186005</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -1686,59 +1686,59 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7277772106630654</v>
+        <v>0.637638869004896</v>
       </c>
       <c r="C55" t="n">
-        <v>22.66087341308594</v>
+        <v>3.963740825653076</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3472828597046309</v>
+        <v>0.2845917449011728</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6846485319199618</v>
+        <v>0.6315385183586822</v>
       </c>
       <c r="C56" t="n">
-        <v>3.720986366271973</v>
+        <v>30.67214965820312</v>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3937361254238623</v>
+        <v>0.1473097703475733</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6678778056640133</v>
+        <v>0.5296446464652116</v>
       </c>
       <c r="C57" t="n">
-        <v>27.64713096618652</v>
+        <v>39.1541862487793</v>
       </c>
       <c r="D57" t="n">
         <v>4</v>
@@ -1755,13 +1755,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5888946605622933</v>
+        <v>0.3996356791862269</v>
       </c>
       <c r="C58" t="n">
-        <v>4.459001064300537</v>
+        <v>5.714141368865967</v>
       </c>
       <c r="D58" t="n">
         <v>4</v>
@@ -1770,7 +1770,7 @@
         <v>32</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2845917449011728</v>
+        <v>0.4196634256866895</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -1778,13 +1778,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3583308039007775</v>
+        <v>0.04210951118224349</v>
       </c>
       <c r="C59" t="n">
-        <v>5.746134281158447</v>
+        <v>7.330599308013916</v>
       </c>
       <c r="D59" t="n">
         <v>4</v>
@@ -1801,45 +1801,45 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3299657280552292</v>
+        <v>0.81800354827212</v>
       </c>
       <c r="C60" t="n">
-        <v>6.040664196014404</v>
+        <v>15.15008640289307</v>
       </c>
       <c r="D60" t="n">
         <v>4</v>
       </c>
       <c r="E60" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4196634256866895</v>
+        <v>0.1099596910201392</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8480820584754698</v>
+        <v>0.8101401851730797</v>
       </c>
       <c r="C61" t="n">
-        <v>12.6462345123291</v>
+        <v>15.80466270446777</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E61" t="n">
         <v>128</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1170834759067526</v>
+        <v>0.1</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1847,22 +1847,22 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8449302946093055</v>
+        <v>0.7879196588571951</v>
       </c>
       <c r="C62" t="n">
-        <v>12.90859889984131</v>
+        <v>17.65438079833984</v>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
         <v>128</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1099596910201392</v>
+        <v>0.1</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1870,16 +1870,16 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8302336750386325</v>
+        <v>0.7836920020315277</v>
       </c>
       <c r="C63" t="n">
-        <v>14.13200092315674</v>
+        <v>18.00631141662598</v>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
         <v>128</v>
@@ -1893,22 +1893,22 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8299330020243334</v>
+        <v>0.7731849995599527</v>
       </c>
       <c r="C64" t="n">
-        <v>14.15703010559082</v>
+        <v>18.88095092773438</v>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
         <v>128</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1</v>
+        <v>0.194615414274904</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -1916,22 +1916,22 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8021228427498153</v>
+        <v>0.7720487128579199</v>
       </c>
       <c r="C65" t="n">
-        <v>16.47205543518066</v>
+        <v>18.97554016113281</v>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
         <v>128</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1628013984766347</v>
+        <v>0.3238251915215407</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -1939,22 +1939,22 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8015513863371432</v>
+        <v>0.7718217243793369</v>
       </c>
       <c r="C66" t="n">
-        <v>16.51962471008301</v>
+        <v>18.99443435668945</v>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
         <v>128</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1</v>
+        <v>0.4636513499546925</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -1962,22 +1962,22 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7983205989068805</v>
+        <v>0.7677965279612049</v>
       </c>
       <c r="C67" t="n">
-        <v>16.7885684967041</v>
+        <v>19.32950782775879</v>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1</v>
+        <v>0.1853541414319662</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -1985,45 +1985,45 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7941819495981832</v>
+        <v>0.7656546513015354</v>
       </c>
       <c r="C68" t="n">
-        <v>2.956337213516235</v>
+        <v>19.5078067779541</v>
       </c>
       <c r="D68" t="n">
         <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2808495847270732</v>
+        <v>0.1</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7777701034819673</v>
+        <v>0.7507557648447599</v>
       </c>
       <c r="C69" t="n">
-        <v>18.4992733001709</v>
+        <v>20.748046875</v>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
         <v>128</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2457663548248324</v>
+        <v>0.3075459462514381</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2031,68 +2031,68 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7643312701312039</v>
+        <v>0.7504269381105098</v>
       </c>
       <c r="C70" t="n">
-        <v>2.978563547134399</v>
+        <v>20.77542114257812</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1</v>
+        <v>0.3193959676944121</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7564708639518959</v>
+        <v>0.7372326354357663</v>
       </c>
       <c r="C71" t="n">
-        <v>20.27230072021484</v>
+        <v>3.227580547332764</v>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1</v>
+        <v>0.4724824078756087</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7523519276265302</v>
+        <v>0.7264020626911811</v>
       </c>
       <c r="C72" t="n">
-        <v>20.61517524719238</v>
+        <v>22.77534484863281</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
         <v>128</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4636513499546925</v>
+        <v>0.1</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2100,22 +2100,22 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7490193221734791</v>
+        <v>0.7245571285641563</v>
       </c>
       <c r="C73" t="n">
-        <v>3.015001535415649</v>
+        <v>3.365072727203369</v>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4724824078756087</v>
+        <v>0.1921211516083859</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2123,68 +2123,68 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7386298905868331</v>
+        <v>0.7218276249796705</v>
       </c>
       <c r="C74" t="n">
-        <v>21.75745391845703</v>
+        <v>3.199154138565063</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="F74" t="n">
-        <v>0.3193959676944121</v>
+        <v>0.2808495847270732</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7378603961553656</v>
+        <v>0.6864570938822419</v>
       </c>
       <c r="C75" t="n">
-        <v>3.303265810012817</v>
+        <v>26.10051727294922</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4963778903492912</v>
+        <v>0.340219566985649</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7341340084611027</v>
+        <v>0.5273057525991651</v>
       </c>
       <c r="C76" t="n">
-        <v>22.13171195983887</v>
+        <v>39.3488883972168</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E76" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1853541414319662</v>
+        <v>0.4638374110878455</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2192,22 +2192,22 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6714065535156948</v>
+        <v>0.3587736405843752</v>
       </c>
       <c r="C77" t="n">
-        <v>3.975829362869263</v>
+        <v>5.948455810546875</v>
       </c>
       <c r="D77" t="n">
         <v>4</v>
       </c>
       <c r="E77" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1921211516083859</v>
+        <v>0.4800518001654582</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -2215,22 +2215,22 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6432705897210593</v>
+        <v>0.8494784730963527</v>
       </c>
       <c r="C78" t="n">
-        <v>29.69552803039551</v>
+        <v>12.52999114990234</v>
       </c>
       <c r="D78" t="n">
         <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F78" t="n">
-        <v>0.340219566985649</v>
+        <v>0.1967638020748425</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2238,45 +2238,45 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6161320476967858</v>
+        <v>0.8421561343870785</v>
       </c>
       <c r="C79" t="n">
-        <v>4.340814113616943</v>
+        <v>13.13953018188477</v>
       </c>
       <c r="D79" t="n">
         <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4800518001654582</v>
+        <v>0.2184319730934592</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5175754565882531</v>
+        <v>0.8354833590820802</v>
       </c>
       <c r="C80" t="n">
-        <v>40.15887451171875</v>
+        <v>13.69499969482422</v>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
         <v>128</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4638374110878455</v>
+        <v>0.1205487277124973</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8558444333192383</v>
+        <v>0.8353326857010062</v>
       </c>
       <c r="C81" t="n">
-        <v>12.00006198883057</v>
+        <v>13.70753955841064</v>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F81" t="n">
         <v>0.1</v>
@@ -2307,13 +2307,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8502683654119237</v>
+        <v>0.8352980798764953</v>
       </c>
       <c r="C82" t="n">
-        <v>12.46423816680908</v>
+        <v>13.71041965484619</v>
       </c>
       <c r="D82" t="n">
         <v>4</v>
@@ -2322,7 +2322,7 @@
         <v>256</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1</v>
+        <v>0.229084491771636</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2330,22 +2330,22 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8399268755957229</v>
+        <v>0.8300876741453351</v>
       </c>
       <c r="C83" t="n">
-        <v>13.32510185241699</v>
+        <v>14.14415550231934</v>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E83" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2157899983500209</v>
+        <v>0.1392085662920537</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2353,22 +2353,22 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B84" t="n">
-        <v>0.839626487222668</v>
+        <v>0.8261545312061703</v>
       </c>
       <c r="C84" t="n">
-        <v>13.35011005401611</v>
+        <v>14.47156620025635</v>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2147768842274668</v>
+        <v>0.2093410234353184</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2376,36 +2376,36 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8392801911532233</v>
+        <v>0.8207774866098188</v>
       </c>
       <c r="C85" t="n">
-        <v>2.423117637634277</v>
+        <v>14.9191722869873</v>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2096345847968899</v>
+        <v>0.1</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8388206184199233</v>
+        <v>0.8204490336755718</v>
       </c>
       <c r="C86" t="n">
-        <v>13.41719245910645</v>
+        <v>14.94651126861572</v>
       </c>
       <c r="D86" t="n">
         <v>4</v>
@@ -2414,7 +2414,7 @@
         <v>256</v>
       </c>
       <c r="F86" t="n">
-        <v>0.215036188704834</v>
+        <v>0.1992581543885403</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2422,13 +2422,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8373079025143421</v>
+        <v>0.8156328309192914</v>
       </c>
       <c r="C87" t="n">
-        <v>13.54311561584473</v>
+        <v>15.34743213653564</v>
       </c>
       <c r="D87" t="n">
         <v>4</v>
@@ -2437,7 +2437,7 @@
         <v>256</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2156212360032004</v>
+        <v>0.1397664262167751</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B88" t="n">
-        <v>0.837299834648098</v>
+        <v>0.8113113008565312</v>
       </c>
       <c r="C88" t="n">
-        <v>13.54378700256348</v>
+        <v>15.70717144012451</v>
       </c>
       <c r="D88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2157477989477543</v>
+        <v>0.1455062797382138</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2468,22 +2468,22 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8302009416190032</v>
+        <v>0.8086108248424916</v>
       </c>
       <c r="C89" t="n">
-        <v>14.13472747802734</v>
+        <v>15.93197250366211</v>
       </c>
       <c r="D89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E89" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F89" t="n">
-        <v>0.215644375831651</v>
+        <v>0.1772848749966766</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2491,22 +2491,22 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8294776498788926</v>
+        <v>0.8083390924843237</v>
       </c>
       <c r="C90" t="n">
-        <v>14.19493770599365</v>
+        <v>15.95458889007568</v>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E90" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2184319730934592</v>
+        <v>0.1214147258989504</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2514,22 +2514,22 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8183909902427778</v>
+        <v>0.8052618049822741</v>
       </c>
       <c r="C91" t="n">
-        <v>15.11783409118652</v>
+        <v>16.21075820922852</v>
       </c>
       <c r="D91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E91" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2101703643505825</v>
+        <v>0.188371998162026</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2537,13 +2537,13 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8167463985398328</v>
+        <v>0.8049504466463084</v>
       </c>
       <c r="C92" t="n">
-        <v>15.25473403930664</v>
+        <v>2.623189687728882</v>
       </c>
       <c r="D92" t="n">
         <v>4</v>
@@ -2552,30 +2552,30 @@
         <v>256</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2160086966973243</v>
+        <v>0.2096345847968899</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8148036071616553</v>
+        <v>0.799393357267449</v>
       </c>
       <c r="C93" t="n">
-        <v>15.41646099090576</v>
+        <v>16.69926834106445</v>
       </c>
       <c r="D93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E93" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2157246957048461</v>
+        <v>0.331935124075818</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2583,22 +2583,22 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8143968688176225</v>
+        <v>0.7928081117613024</v>
       </c>
       <c r="C94" t="n">
-        <v>15.45032024383545</v>
+        <v>17.24744987487793</v>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1986029624874902</v>
+        <v>0.1646697427342697</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B95" t="n">
-        <v>0.808497405521683</v>
+        <v>0.791585091519159</v>
       </c>
       <c r="C95" t="n">
-        <v>15.94141101837158</v>
+        <v>2.900159597396851</v>
       </c>
       <c r="D95" t="n">
         <v>4</v>
@@ -2621,76 +2621,76 @@
         <v>256</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2142969885712365</v>
+        <v>0.3778008016801928</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8065261084430927</v>
+        <v>0.7695000398869153</v>
       </c>
       <c r="C96" t="n">
-        <v>16.10551071166992</v>
+        <v>2.795092821121216</v>
       </c>
       <c r="D96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E96" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3427976468609236</v>
+        <v>0.2656940076324206</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8042323093558531</v>
+        <v>0.7600887665829241</v>
       </c>
       <c r="C97" t="n">
-        <v>16.29645538330078</v>
+        <v>2.830733299255371</v>
       </c>
       <c r="D97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
         <v>256</v>
       </c>
       <c r="F97" t="n">
-        <v>0.216128936278633</v>
+        <v>0.201435282309515</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8032690875433907</v>
+        <v>0.7485454691594062</v>
       </c>
       <c r="C98" t="n">
-        <v>2.709100484848022</v>
+        <v>3.173253774642944</v>
       </c>
       <c r="D98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="F98" t="n">
-        <v>0.210449280127639</v>
+        <v>0.2138743522565455</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -2698,45 +2698,45 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8007335715004833</v>
+        <v>0.7432413830374954</v>
       </c>
       <c r="C99" t="n">
-        <v>16.58770370483398</v>
+        <v>2.928606748580933</v>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>256</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2157654771050871</v>
+        <v>0.2063276470142029</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8001053704989451</v>
+        <v>0.7312989714472189</v>
       </c>
       <c r="C100" t="n">
-        <v>2.95140528678894</v>
+        <v>3.386901617050171</v>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
         <v>32</v>
       </c>
       <c r="F100" t="n">
-        <v>0.339971678649995</v>
+        <v>0.3515151635517934</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -2744,22 +2744,22 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B101" t="n">
-        <v>0.7988298433844974</v>
+        <v>0.7217267205417203</v>
       </c>
       <c r="C101" t="n">
-        <v>16.74617958068848</v>
+        <v>23.16453552246094</v>
       </c>
       <c r="D101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2156488287229985</v>
+        <v>0.2310255790754936</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -2767,59 +2767,59 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B102" t="n">
-        <v>0.7956332820667757</v>
+        <v>0.694832166625633</v>
       </c>
       <c r="C102" t="n">
-        <v>17.01226997375488</v>
+        <v>3.790457010269165</v>
       </c>
       <c r="D102" t="n">
         <v>3</v>
       </c>
       <c r="E102" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F102" t="n">
-        <v>0.331935124075818</v>
+        <v>0.339971678649995</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7734058047533691</v>
+        <v>0.6123048343961245</v>
       </c>
       <c r="C103" t="n">
-        <v>2.660308837890625</v>
+        <v>32.27323913574219</v>
       </c>
       <c r="D103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E103" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F103" t="n">
-        <v>0.2656940076324206</v>
+        <v>0.5</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>0.771565536431746</v>
+        <v>0.8549383522070925</v>
       </c>
       <c r="C104" t="n">
-        <v>19.01576232910156</v>
+        <v>12.07548999786377</v>
       </c>
       <c r="D104" t="n">
         <v>4</v>
@@ -2828,7 +2828,7 @@
         <v>256</v>
       </c>
       <c r="F104" t="n">
-        <v>0.2160089864983729</v>
+        <v>0.1</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -2836,68 +2836,68 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>0.7660230923049727</v>
+        <v>0.8479400454498724</v>
       </c>
       <c r="C105" t="n">
-        <v>3.005985736846924</v>
+        <v>12.65805625915527</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="F105" t="n">
-        <v>0.2138743522565455</v>
+        <v>0.1</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>0.7622674930669553</v>
+        <v>0.8463369931506124</v>
       </c>
       <c r="C106" t="n">
-        <v>2.681044578552246</v>
+        <v>12.79149913787842</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E106" t="n">
         <v>256</v>
       </c>
       <c r="F106" t="n">
-        <v>0.201435282309515</v>
+        <v>0.1</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B107" t="n">
-        <v>0.7568746941485608</v>
+        <v>0.8440721518636152</v>
       </c>
       <c r="C107" t="n">
-        <v>20.23868370056152</v>
+        <v>12.9800329208374</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E107" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F107" t="n">
-        <v>0.2310255790754936</v>
+        <v>0.1</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -2905,59 +2905,59 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B108" t="n">
-        <v>0.7550038489414759</v>
+        <v>0.840338720111949</v>
       </c>
       <c r="C108" t="n">
-        <v>2.793545007705688</v>
+        <v>13.29081916809082</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E108" t="n">
         <v>256</v>
       </c>
       <c r="F108" t="n">
-        <v>0.2063276470142029</v>
+        <v>0.1</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B109" t="n">
-        <v>0.7408902029461057</v>
+        <v>0.8355588569088295</v>
       </c>
       <c r="C109" t="n">
-        <v>3.227216482162476</v>
+        <v>13.68871116638184</v>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E109" t="n">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3515151635517934</v>
+        <v>0.1</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7394901835656915</v>
+        <v>0.8333455348278529</v>
       </c>
       <c r="C110" t="n">
-        <v>3.52029275894165</v>
+        <v>13.87296104431152</v>
       </c>
       <c r="D110" t="n">
         <v>4</v>
@@ -2966,21 +2966,21 @@
         <v>256</v>
       </c>
       <c r="F110" t="n">
-        <v>0.2149768447142466</v>
+        <v>0.1</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B111" t="n">
-        <v>0.838618604856848</v>
+        <v>0.8315968818867101</v>
       </c>
       <c r="C111" t="n">
-        <v>13.43400859832764</v>
+        <v>14.01852130889893</v>
       </c>
       <c r="D111" t="n">
         <v>4</v>
@@ -2989,7 +2989,7 @@
         <v>256</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1</v>
+        <v>0.1401216323645335</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8327054753090001</v>
+        <v>0.8130507479645084</v>
       </c>
       <c r="C112" t="n">
-        <v>13.92623996734619</v>
+        <v>15.56237506866455</v>
       </c>
       <c r="D112" t="n">
         <v>4</v>
@@ -3020,13 +3020,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8248177346787829</v>
+        <v>0.8096599372158422</v>
       </c>
       <c r="C113" t="n">
-        <v>2.383123397827148</v>
+        <v>2.498075485229492</v>
       </c>
       <c r="D113" t="n">
         <v>3</v>
@@ -3043,45 +3043,45 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8238539541326327</v>
+        <v>0.8038128910075143</v>
       </c>
       <c r="C114" t="n">
-        <v>14.66307544708252</v>
+        <v>2.639011859893799</v>
       </c>
       <c r="D114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E114" t="n">
         <v>256</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1</v>
+        <v>0.2029126870278755</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8152096813004009</v>
+        <v>0.8036384053598753</v>
       </c>
       <c r="C115" t="n">
-        <v>2.391369104385376</v>
+        <v>2.669830083847046</v>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E115" t="n">
         <v>256</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1</v>
+        <v>0.4393309001418779</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -3089,22 +3089,22 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8000552868301339</v>
+        <v>0.7974316314471308</v>
       </c>
       <c r="C116" t="n">
-        <v>16.64416694641113</v>
+        <v>16.86257362365723</v>
       </c>
       <c r="D116" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E116" t="n">
         <v>256</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1520670730661181</v>
+        <v>0.1</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -3112,22 +3112,22 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B117" t="n">
-        <v>0.797300199638077</v>
+        <v>0.7920962800251685</v>
       </c>
       <c r="C117" t="n">
-        <v>2.465143442153931</v>
+        <v>2.713373184204102</v>
       </c>
       <c r="D117" t="n">
         <v>2</v>
       </c>
       <c r="E117" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1102183081179776</v>
+        <v>0.2335096182042682</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -3135,13 +3135,13 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B118" t="n">
-        <v>0.7900499261140214</v>
+        <v>0.7786900168998898</v>
       </c>
       <c r="C118" t="n">
-        <v>2.590969800949097</v>
+        <v>2.593174457550049</v>
       </c>
       <c r="D118" t="n">
         <v>4</v>
@@ -3158,13 +3158,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B119" t="n">
-        <v>0.7686156156502362</v>
+        <v>0.7785953290624157</v>
       </c>
       <c r="C119" t="n">
-        <v>2.957451105117798</v>
+        <v>2.933347463607788</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -3181,22 +3181,22 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B120" t="n">
-        <v>0.7645356077028245</v>
+        <v>0.7738254993980687</v>
       </c>
       <c r="C120" t="n">
-        <v>2.904958963394165</v>
+        <v>3.150289535522461</v>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E120" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F120" t="n">
-        <v>0.4895420964801785</v>
+        <v>0.2704367081904769</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -3204,22 +3204,22 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B121" t="n">
-        <v>0.7571480666727439</v>
+        <v>0.7668509912722217</v>
       </c>
       <c r="C121" t="n">
-        <v>20.2159309387207</v>
+        <v>19.4082202911377</v>
       </c>
       <c r="D121" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E121" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F121" t="n">
-        <v>0.3389594762765412</v>
+        <v>0.1875204243279312</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -3227,13 +3227,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7491331210808312</v>
+        <v>0.7533511448030338</v>
       </c>
       <c r="C122" t="n">
-        <v>2.759179830551147</v>
+        <v>20.53199768066406</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -3245,27 +3245,27 @@
         <v>0.1</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B123" t="n">
-        <v>0.7314739036079739</v>
+        <v>0.7270649169835661</v>
       </c>
       <c r="C123" t="n">
-        <v>3.018542528152466</v>
+        <v>3.311995506286621</v>
       </c>
       <c r="D123" t="n">
         <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F123" t="n">
-        <v>0.2335096182042682</v>
+        <v>0.4895420964801785</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -3273,45 +3273,45 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7242134831783622</v>
+        <v>0.7187450018036097</v>
       </c>
       <c r="C124" t="n">
-        <v>22.9575309753418</v>
+        <v>3.350091934204102</v>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E124" t="n">
         <v>64</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1875204243279312</v>
+        <v>0.1283771379000795</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B125" t="n">
-        <v>0.711921673318952</v>
+        <v>0.7145534760551286</v>
       </c>
       <c r="C125" t="n">
-        <v>23.98074722290039</v>
+        <v>23.76166343688965</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F125" t="n">
-        <v>0.4931482186213735</v>
+        <v>0.2288523172816718</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -3319,45 +3319,45 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7090334103160743</v>
+        <v>0.70707115613233</v>
       </c>
       <c r="C126" t="n">
-        <v>3.555330514907837</v>
+        <v>24.3845272064209</v>
       </c>
       <c r="D126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1283771379000795</v>
+        <v>0.4931482186213735</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>0.6946505919872876</v>
+        <v>0.8403776784601218</v>
       </c>
       <c r="C127" t="n">
-        <v>25.4184627532959</v>
+        <v>13.28757572174072</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E127" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F127" t="n">
-        <v>0.2288523172816718</v>
+        <v>0.1</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -3365,39 +3365,39 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B128" t="n">
-        <v>0.6682079095788427</v>
+        <v>0.8323579859762552</v>
       </c>
       <c r="C128" t="n">
-        <v>3.769038200378418</v>
+        <v>13.95516395568848</v>
       </c>
       <c r="D128" t="n">
         <v>4</v>
       </c>
       <c r="E128" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F128" t="n">
-        <v>0.2704367081904769</v>
+        <v>0.1</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8209265286920269</v>
+        <v>0.8320387901746245</v>
       </c>
       <c r="C129" t="n">
-        <v>2.412750005722046</v>
+        <v>13.98173522949219</v>
       </c>
       <c r="D129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E129" t="n">
         <v>128</v>
@@ -3406,21 +3406,21 @@
         <v>0.1</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8206577108385193</v>
+        <v>0.8283563268693271</v>
       </c>
       <c r="C130" t="n">
-        <v>14.9291410446167</v>
+        <v>14.28827953338623</v>
       </c>
       <c r="D130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E130" t="n">
         <v>128</v>
@@ -3434,39 +3434,39 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B131" t="n">
-        <v>0.804770227545885</v>
+        <v>0.8254020396123681</v>
       </c>
       <c r="C131" t="n">
-        <v>16.25167465209961</v>
+        <v>2.546276569366455</v>
       </c>
       <c r="D131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E131" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F131" t="n">
         <v>0.1</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7974531185480852</v>
+        <v>0.8242344368525383</v>
       </c>
       <c r="C132" t="n">
-        <v>2.490282297134399</v>
+        <v>14.6314001083374</v>
       </c>
       <c r="D132" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E132" t="n">
         <v>128</v>
@@ -3475,27 +3475,27 @@
         <v>0.1</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7765413659165319</v>
+        <v>0.8187044131674655</v>
       </c>
       <c r="C133" t="n">
-        <v>18.6015567779541</v>
+        <v>15.09173965454102</v>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E133" t="n">
         <v>128</v>
       </c>
       <c r="F133" t="n">
-        <v>0.2761814870682958</v>
+        <v>0.194838602013885</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7739470734127066</v>
+        <v>0.8101200761454554</v>
       </c>
       <c r="C134" t="n">
-        <v>18.81751251220703</v>
+        <v>15.80633544921875</v>
       </c>
       <c r="D134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E134" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F134" t="n">
-        <v>0.3363451269665403</v>
+        <v>0.1</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -3526,45 +3526,45 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7710624891438214</v>
+        <v>0.8051036771838364</v>
       </c>
       <c r="C135" t="n">
-        <v>2.676384925842285</v>
+        <v>16.22391700744629</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E135" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1095927529508662</v>
+        <v>0.1</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B136" t="n">
-        <v>0.763160650265321</v>
+        <v>0.7960457292690842</v>
       </c>
       <c r="C136" t="n">
-        <v>19.71541976928711</v>
+        <v>16.97793769836426</v>
       </c>
       <c r="D136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E136" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2037009787629862</v>
+        <v>0.3363451269665403</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -3572,68 +3572,68 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7425384523829823</v>
+        <v>0.7948303379223536</v>
       </c>
       <c r="C137" t="n">
-        <v>2.882643222808838</v>
+        <v>17.07911109924316</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137" t="n">
         <v>256</v>
       </c>
       <c r="F137" t="n">
-        <v>0.3772551673251986</v>
+        <v>0.5</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7318503062079162</v>
+        <v>0.7939761947176165</v>
       </c>
       <c r="C138" t="n">
-        <v>22.32181549072266</v>
+        <v>2.546585083007812</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E138" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F138" t="n">
-        <v>0.2134100327085275</v>
+        <v>0.1</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B139" t="n">
-        <v>0.7303775859148512</v>
+        <v>0.7893641332867443</v>
       </c>
       <c r="C139" t="n">
-        <v>22.44440841674805</v>
+        <v>17.53413963317871</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139" t="n">
         <v>128</v>
       </c>
       <c r="F139" t="n">
-        <v>0.2660404788040279</v>
+        <v>0.2761814870682958</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -3641,22 +3641,22 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B140" t="n">
-        <v>0.7223738992660539</v>
+        <v>0.7891841694779655</v>
       </c>
       <c r="C140" t="n">
-        <v>3.215410947799683</v>
+        <v>2.709885835647583</v>
       </c>
       <c r="D140" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E140" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3235416351963528</v>
+        <v>0.1</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -3664,91 +3664,91 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B141" t="n">
-        <v>0.7110283095742524</v>
+        <v>0.7712651344237375</v>
       </c>
       <c r="C141" t="n">
-        <v>24.05511856079102</v>
+        <v>2.734479188919067</v>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1627470953899853</v>
+        <v>0.1095927529508662</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B142" t="n">
-        <v>0.6393239771852139</v>
+        <v>0.770086968291171</v>
       </c>
       <c r="C142" t="n">
-        <v>30.02406311035156</v>
+        <v>2.711075067520142</v>
       </c>
       <c r="D142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="F142" t="n">
-        <v>0.3178596072127379</v>
+        <v>0.3772551673251986</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B143" t="n">
-        <v>0.7963159293969813</v>
+        <v>0.768997744808569</v>
       </c>
       <c r="C143" t="n">
-        <v>2.624089002609253</v>
+        <v>19.22951698303223</v>
       </c>
       <c r="D143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E143" t="n">
         <v>64</v>
       </c>
       <c r="F143" t="n">
-        <v>0.1792405956339515</v>
+        <v>0.1</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B144" t="n">
-        <v>0.7760379378785147</v>
+        <v>0.7670485010903884</v>
       </c>
       <c r="C144" t="n">
-        <v>2.816397666931152</v>
+        <v>2.809362411499023</v>
       </c>
       <c r="D144" t="n">
         <v>3</v>
       </c>
       <c r="E144" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F144" t="n">
-        <v>0.1415021430527691</v>
+        <v>0.1</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -3756,36 +3756,36 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B145" t="n">
-        <v>0.7577802790062271</v>
+        <v>0.7575946263851595</v>
       </c>
       <c r="C145" t="n">
-        <v>20.16330146789551</v>
+        <v>2.585728406906128</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145" t="n">
         <v>256</v>
       </c>
       <c r="F145" t="n">
-        <v>0.1561547754380935</v>
+        <v>0.5</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B146" t="n">
-        <v>0.7397530756842625</v>
+        <v>0.7533921740629347</v>
       </c>
       <c r="C146" t="n">
-        <v>21.6639575958252</v>
+        <v>2.914189338684082</v>
       </c>
       <c r="D146" t="n">
         <v>2</v>
@@ -3794,30 +3794,30 @@
         <v>64</v>
       </c>
       <c r="F146" t="n">
-        <v>0.2253696712636971</v>
+        <v>0.3235416351963528</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7349026404791312</v>
+        <v>0.7445259782901813</v>
       </c>
       <c r="C147" t="n">
-        <v>22.06772422790527</v>
+        <v>21.26663970947266</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="F147" t="n">
-        <v>0.3234759313783007</v>
+        <v>0.1</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -3825,68 +3825,68 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B148" t="n">
-        <v>0.7345624463154566</v>
+        <v>0.7345854427841151</v>
       </c>
       <c r="C148" t="n">
-        <v>22.09604263305664</v>
+        <v>2.682958364486694</v>
       </c>
       <c r="D148" t="n">
         <v>2</v>
       </c>
       <c r="E148" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F148" t="n">
-        <v>0.368187004071361</v>
+        <v>0.1</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B149" t="n">
-        <v>0.7337617735688148</v>
+        <v>0.7317734000313199</v>
       </c>
       <c r="C149" t="n">
-        <v>2.816937923431396</v>
+        <v>22.32822036743164</v>
       </c>
       <c r="D149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E149" t="n">
         <v>64</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1</v>
+        <v>0.2037009787629862</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B150" t="n">
-        <v>0.7279854069191515</v>
+        <v>0.7309142174897624</v>
       </c>
       <c r="C150" t="n">
-        <v>2.938355445861816</v>
+        <v>3.276026964187622</v>
       </c>
       <c r="D150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
         <v>64</v>
       </c>
       <c r="F150" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -3894,13 +3894,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B151" t="n">
-        <v>0.6903109560688687</v>
+        <v>0.7300878655410585</v>
       </c>
       <c r="C151" t="n">
-        <v>25.77970886230469</v>
+        <v>3.422693252563477</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -3909,67 +3909,67 @@
         <v>32</v>
       </c>
       <c r="F151" t="n">
-        <v>0.4505556609184154</v>
+        <v>0.5</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B152" t="n">
-        <v>0.6900512040621901</v>
+        <v>0.7295637722180834</v>
       </c>
       <c r="C152" t="n">
-        <v>3.776461839675903</v>
+        <v>22.51215171813965</v>
       </c>
       <c r="D152" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
         <v>128</v>
       </c>
       <c r="F152" t="n">
-        <v>0.3769290462677256</v>
+        <v>0.2660404788040279</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B153" t="n">
-        <v>0.6790904916578011</v>
+        <v>0.7290878514743434</v>
       </c>
       <c r="C153" t="n">
-        <v>3.696442365646362</v>
+        <v>22.55176734924316</v>
       </c>
       <c r="D153" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E153" t="n">
         <v>64</v>
       </c>
       <c r="F153" t="n">
-        <v>0.2669219209468508</v>
+        <v>0.5</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B154" t="n">
-        <v>0.67020755970909</v>
+        <v>0.7218026960573514</v>
       </c>
       <c r="C154" t="n">
-        <v>27.45319366455078</v>
+        <v>23.15821266174316</v>
       </c>
       <c r="D154" t="n">
         <v>2</v>
@@ -3978,7 +3978,7 @@
         <v>32</v>
       </c>
       <c r="F154" t="n">
-        <v>0.4202978274702147</v>
+        <v>0.1627470953899853</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -3986,45 +3986,45 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B155" t="n">
-        <v>0.5204455476460926</v>
+        <v>0.7165542909726297</v>
       </c>
       <c r="C155" t="n">
-        <v>39.91996383666992</v>
+        <v>3.481032371520996</v>
       </c>
       <c r="D155" t="n">
         <v>4</v>
       </c>
       <c r="E155" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F155" t="n">
-        <v>0.4873046302877591</v>
+        <v>0.4302660968342958</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B156" t="n">
-        <v>0.8485200599097157</v>
+        <v>0.7114975323754715</v>
       </c>
       <c r="C156" t="n">
-        <v>12.60977363586426</v>
+        <v>24.01605606079102</v>
       </c>
       <c r="D156" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F156" t="n">
-        <v>0.1295359094361787</v>
+        <v>0.2134100327085275</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -4032,22 +4032,22 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B157" t="n">
-        <v>0.8421430365659253</v>
+        <v>0.7032093616793926</v>
       </c>
       <c r="C157" t="n">
-        <v>13.14062213897705</v>
+        <v>24.70599746704102</v>
       </c>
       <c r="D157" t="n">
         <v>4</v>
       </c>
       <c r="E157" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F157" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -4055,36 +4055,36 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B158" t="n">
-        <v>0.8360583082956751</v>
+        <v>0.634904142507192</v>
       </c>
       <c r="C158" t="n">
-        <v>13.64713764190674</v>
+        <v>4.027098655700684</v>
       </c>
       <c r="D158" t="n">
         <v>4</v>
       </c>
       <c r="E158" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F158" t="n">
-        <v>0.1743182933718145</v>
+        <v>0.5</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B159" t="n">
-        <v>0.8333958841198168</v>
+        <v>0.5828953350383148</v>
       </c>
       <c r="C159" t="n">
-        <v>13.8687686920166</v>
+        <v>34.72140121459961</v>
       </c>
       <c r="D159" t="n">
         <v>4</v>
@@ -4093,7 +4093,7 @@
         <v>256</v>
       </c>
       <c r="F159" t="n">
-        <v>0.1015668180984483</v>
+        <v>0.5</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -4101,22 +4101,22 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B160" t="n">
-        <v>0.8007950031145854</v>
+        <v>0.5474300673971799</v>
       </c>
       <c r="C160" t="n">
-        <v>16.58258628845215</v>
+        <v>37.67366027832031</v>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E160" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F160" t="n">
-        <v>0.1</v>
+        <v>0.3178596072127379</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -4124,22 +4124,22 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7984355602948253</v>
+        <v>0.8186578469568923</v>
       </c>
       <c r="C161" t="n">
-        <v>16.77899932861328</v>
+        <v>15.09561920166016</v>
       </c>
       <c r="D161" t="n">
         <v>2</v>
       </c>
       <c r="E161" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F161" t="n">
-        <v>0.1217898031289419</v>
+        <v>0.1</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -4147,19 +4147,19 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B162" t="n">
-        <v>0.7943884051524447</v>
+        <v>0.8137793658143955</v>
       </c>
       <c r="C162" t="n">
-        <v>17.11590003967285</v>
+        <v>15.50172328948975</v>
       </c>
       <c r="D162" t="n">
         <v>2</v>
       </c>
       <c r="E162" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F162" t="n">
         <v>0.1</v>
@@ -4170,22 +4170,22 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B163" t="n">
-        <v>0.7917670567002835</v>
+        <v>0.7568276598768104</v>
       </c>
       <c r="C163" t="n">
-        <v>17.3341121673584</v>
+        <v>20.24260139465332</v>
       </c>
       <c r="D163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1160408542592131</v>
+        <v>0.312676758774191</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -4193,22 +4193,22 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B164" t="n">
-        <v>0.7902676111177314</v>
+        <v>0.7554160126185703</v>
       </c>
       <c r="C164" t="n">
-        <v>17.45892906188965</v>
+        <v>20.36010932922363</v>
       </c>
       <c r="D164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F164" t="n">
-        <v>0.1749732528593539</v>
+        <v>0.1</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -4216,22 +4216,22 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B165" t="n">
-        <v>0.7862968054351527</v>
+        <v>0.7503227266087431</v>
       </c>
       <c r="C165" t="n">
-        <v>17.78947639465332</v>
+        <v>20.78409767150879</v>
       </c>
       <c r="D165" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
         <v>256</v>
       </c>
       <c r="F165" t="n">
-        <v>0.2652803739264723</v>
+        <v>0.1561547754380935</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -4239,22 +4239,22 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B166" t="n">
-        <v>0.7802355982889311</v>
+        <v>0.7471184163037714</v>
       </c>
       <c r="C166" t="n">
-        <v>18.29403686523438</v>
+        <v>21.05083847045898</v>
       </c>
       <c r="D166" t="n">
         <v>2</v>
       </c>
       <c r="E166" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F166" t="n">
-        <v>0.1087875812250062</v>
+        <v>0.2253696712636971</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -4262,22 +4262,22 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B167" t="n">
-        <v>0.7789661205832017</v>
+        <v>0.7443578906072702</v>
       </c>
       <c r="C167" t="n">
-        <v>18.39971160888672</v>
+        <v>21.28063201904297</v>
       </c>
       <c r="D167" t="n">
         <v>2</v>
       </c>
       <c r="E167" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F167" t="n">
-        <v>0.1113986436222546</v>
+        <v>0.4202978274702147</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -4285,45 +4285,45 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B168" t="n">
-        <v>0.7667282383094391</v>
+        <v>0.736097895646421</v>
       </c>
       <c r="C168" t="n">
-        <v>19.41843795776367</v>
+        <v>2.99879789352417</v>
       </c>
       <c r="D168" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E168" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4150067000310315</v>
+        <v>0.1792405956339515</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B169" t="n">
-        <v>0.7658812098178545</v>
+        <v>0.7184738995686344</v>
       </c>
       <c r="C169" t="n">
-        <v>19.48894691467285</v>
+        <v>23.43531036376953</v>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F169" t="n">
-        <v>0.1431758469557763</v>
+        <v>0.5</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -4331,22 +4331,22 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B170" t="n">
-        <v>0.7582806394015431</v>
+        <v>0.7108159379463647</v>
       </c>
       <c r="C170" t="n">
-        <v>20.12164497375488</v>
+        <v>24.07279205322266</v>
       </c>
       <c r="D170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F170" t="n">
-        <v>0.1</v>
+        <v>0.4505556609184154</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -4354,45 +4354,45 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B171" t="n">
-        <v>0.7572723396690449</v>
+        <v>0.7032898979070651</v>
       </c>
       <c r="C171" t="n">
-        <v>3.018040657043457</v>
+        <v>24.69929313659668</v>
       </c>
       <c r="D171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F171" t="n">
-        <v>0.3836527003124669</v>
+        <v>0.3234759313783007</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B172" t="n">
-        <v>0.7371437707192676</v>
+        <v>0.7008502428628283</v>
       </c>
       <c r="C172" t="n">
-        <v>3.318313837051392</v>
+        <v>3.648856401443481</v>
       </c>
       <c r="D172" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E172" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F172" t="n">
-        <v>0.4279432787687366</v>
+        <v>0.3769290462677256</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -4400,22 +4400,22 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B173" t="n">
-        <v>0.7361863624046441</v>
+        <v>0.6668179751605374</v>
       </c>
       <c r="C173" t="n">
-        <v>21.96086120605469</v>
+        <v>27.73535346984863</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F173" t="n">
-        <v>0.450507062082651</v>
+        <v>0.368187004071361</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -4423,45 +4423,45 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B174" t="n">
-        <v>0.7160266216359656</v>
+        <v>0.6044374476301235</v>
       </c>
       <c r="C174" t="n">
-        <v>23.63903617858887</v>
+        <v>4.369412422180176</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E174" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F174" t="n">
-        <v>0.3945626575245756</v>
+        <v>0.2669219209468508</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B175" t="n">
-        <v>0.6899222489143841</v>
+        <v>0.3566716310975812</v>
       </c>
       <c r="C175" t="n">
-        <v>25.81206512451172</v>
+        <v>53.55313491821289</v>
       </c>
       <c r="D175" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E175" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F175" t="n">
-        <v>0.4295037730282085</v>
+        <v>0.4873046302877591</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -4469,22 +4469,22 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>0.685856084507068</v>
+        <v>0.8098726942641457</v>
       </c>
       <c r="C176" t="n">
-        <v>26.15054702758789</v>
+        <v>15.82692718505859</v>
       </c>
       <c r="D176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E176" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F176" t="n">
-        <v>0.4960897085493666</v>
+        <v>0.1217898031289419</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -4492,68 +4492,68 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B177" t="n">
-        <v>0.6661235980048048</v>
+        <v>0.8019320897315931</v>
       </c>
       <c r="C177" t="n">
-        <v>3.716656923294067</v>
+        <v>16.48793411254883</v>
       </c>
       <c r="D177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E177" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F177" t="n">
-        <v>0.4208682249697902</v>
+        <v>0.1267711030425098</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B178" t="n">
-        <v>0.6366939329818279</v>
+        <v>0.7982546625344016</v>
       </c>
       <c r="C178" t="n">
-        <v>4.405012130737305</v>
+        <v>16.79405784606934</v>
       </c>
       <c r="D178" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E178" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F178" t="n">
-        <v>0.3874548946256777</v>
+        <v>0.1299378025071199</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B179" t="n">
-        <v>0.6020302335617502</v>
+        <v>0.795143913244259</v>
       </c>
       <c r="C179" t="n">
-        <v>33.1285285949707</v>
+        <v>17.05300521850586</v>
       </c>
       <c r="D179" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E179" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F179" t="n">
-        <v>0.5</v>
+        <v>0.1244956431666449</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -4561,19 +4561,19 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B180" t="n">
-        <v>0.8325732139352395</v>
+        <v>0.7903036478049413</v>
       </c>
       <c r="C180" t="n">
-        <v>13.9372501373291</v>
+        <v>17.45593070983887</v>
       </c>
       <c r="D180" t="n">
         <v>2</v>
       </c>
       <c r="E180" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F180" t="n">
         <v>0.1</v>
@@ -4584,22 +4584,22 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B181" t="n">
-        <v>0.8268242183086276</v>
+        <v>0.7829887582854381</v>
       </c>
       <c r="C181" t="n">
-        <v>14.41581439971924</v>
+        <v>18.06484985351562</v>
       </c>
       <c r="D181" t="n">
         <v>2</v>
       </c>
       <c r="E181" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F181" t="n">
-        <v>0.3407163526495773</v>
+        <v>0.1096061663030252</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -4607,22 +4607,22 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B182" t="n">
-        <v>0.8083550292296214</v>
+        <v>0.7809818806861151</v>
       </c>
       <c r="C182" t="n">
-        <v>15.95326137542725</v>
+        <v>18.23190879821777</v>
       </c>
       <c r="D182" t="n">
         <v>2</v>
       </c>
       <c r="E182" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F182" t="n">
-        <v>0.1</v>
+        <v>0.1236109564831891</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -4630,22 +4630,22 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8017610251117329</v>
+        <v>0.7799787192073804</v>
       </c>
       <c r="C183" t="n">
-        <v>16.50217437744141</v>
+        <v>18.3154182434082</v>
       </c>
       <c r="D183" t="n">
         <v>2</v>
       </c>
       <c r="E183" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F183" t="n">
-        <v>0.2093454024086384</v>
+        <v>0.2119328815588463</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -4653,22 +4653,22 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B184" t="n">
-        <v>0.7872838594977707</v>
+        <v>0.7729120931879532</v>
       </c>
       <c r="C184" t="n">
-        <v>17.70731163024902</v>
+        <v>18.90367126464844</v>
       </c>
       <c r="D184" t="n">
         <v>2</v>
       </c>
       <c r="E184" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F184" t="n">
-        <v>0.3281946781381236</v>
+        <v>0.1305985649007168</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -4676,22 +4676,22 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B185" t="n">
-        <v>0.7863771351883915</v>
+        <v>0.7700203590286534</v>
       </c>
       <c r="C185" t="n">
-        <v>17.78278923034668</v>
+        <v>19.14438819885254</v>
       </c>
       <c r="D185" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E185" t="n">
         <v>256</v>
       </c>
       <c r="F185" t="n">
-        <v>0.2862673901469064</v>
+        <v>0.2652803739264723</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -4699,22 +4699,22 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B186" t="n">
-        <v>0.7746713607305938</v>
+        <v>0.7684174147095038</v>
       </c>
       <c r="C186" t="n">
-        <v>18.75722312927246</v>
+        <v>19.27782440185547</v>
       </c>
       <c r="D186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E186" t="n">
         <v>128</v>
       </c>
       <c r="F186" t="n">
-        <v>0.3809709696272221</v>
+        <v>0.1372617254254857</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -4722,22 +4722,22 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B187" t="n">
-        <v>0.7643140820165375</v>
+        <v>0.7653935458329615</v>
       </c>
       <c r="C187" t="n">
-        <v>19.61940383911133</v>
+        <v>19.52954483032227</v>
       </c>
       <c r="D187" t="n">
         <v>2</v>
       </c>
       <c r="E187" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F187" t="n">
-        <v>0.3804059563000728</v>
+        <v>0.1201302651889621</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -4745,22 +4745,22 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B188" t="n">
-        <v>0.7562711782903431</v>
+        <v>0.7633891236454976</v>
       </c>
       <c r="C188" t="n">
-        <v>20.28892517089844</v>
+        <v>19.69640159606934</v>
       </c>
       <c r="D188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E188" t="n">
         <v>128</v>
       </c>
       <c r="F188" t="n">
-        <v>0.3782000971461486</v>
+        <v>0.1093293797764658</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -4768,91 +4768,91 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B189" t="n">
-        <v>0.7515462750271132</v>
+        <v>0.7551430936308444</v>
       </c>
       <c r="C189" t="n">
-        <v>2.920220136642456</v>
+        <v>20.38283157348633</v>
       </c>
       <c r="D189" t="n">
         <v>2</v>
       </c>
       <c r="E189" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F189" t="n">
-        <v>0.4762097638106625</v>
+        <v>0.1</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B190" t="n">
-        <v>0.7513231479671633</v>
+        <v>0.7541839648704595</v>
       </c>
       <c r="C190" t="n">
-        <v>3.116080522537231</v>
+        <v>20.46267509460449</v>
       </c>
       <c r="D190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E190" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F190" t="n">
-        <v>0.2545908678458662</v>
+        <v>0.1292438030259179</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B191" t="n">
-        <v>0.7348520684004585</v>
+        <v>0.7518215511952246</v>
       </c>
       <c r="C191" t="n">
-        <v>22.07193374633789</v>
+        <v>2.768604040145874</v>
       </c>
       <c r="D191" t="n">
         <v>3</v>
       </c>
       <c r="E191" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F191" t="n">
-        <v>0.4299481858002193</v>
+        <v>0.3836527003124669</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B192" t="n">
-        <v>0.7333248942650171</v>
+        <v>0.7496208563649887</v>
       </c>
       <c r="C192" t="n">
-        <v>2.823615074157715</v>
+        <v>3.106377124786377</v>
       </c>
       <c r="D192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E192" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F192" t="n">
-        <v>0.3291039262277637</v>
+        <v>0.4279432787687366</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -4860,22 +4860,22 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B193" t="n">
-        <v>0.7093034504630427</v>
+        <v>0.7347682588114778</v>
       </c>
       <c r="C193" t="n">
-        <v>24.19869613647461</v>
+        <v>22.07891082763672</v>
       </c>
       <c r="D193" t="n">
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F193" t="n">
-        <v>0.4592028472900599</v>
+        <v>0.450507062082651</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -4883,22 +4883,22 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B194" t="n">
-        <v>0.6905791283270348</v>
+        <v>0.7336702105021145</v>
       </c>
       <c r="C194" t="n">
-        <v>25.75738716125488</v>
+        <v>22.17031860351562</v>
       </c>
       <c r="D194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F194" t="n">
-        <v>0.3191351132185927</v>
+        <v>0.1</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -4906,22 +4906,22 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B195" t="n">
-        <v>0.6714976988817101</v>
+        <v>0.7245293717679953</v>
       </c>
       <c r="C195" t="n">
-        <v>27.34579849243164</v>
+        <v>22.93123626708984</v>
       </c>
       <c r="D195" t="n">
         <v>3</v>
       </c>
       <c r="E195" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F195" t="n">
-        <v>0.3667595891678547</v>
+        <v>0.4295037730282085</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -4929,68 +4929,68 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B196" t="n">
-        <v>0.6020697928248298</v>
+        <v>0.7197595687181214</v>
       </c>
       <c r="C196" t="n">
-        <v>33.12524795532227</v>
+        <v>3.65957498550415</v>
       </c>
       <c r="D196" t="n">
         <v>4</v>
       </c>
       <c r="E196" t="n">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="F196" t="n">
-        <v>0.3777754711057834</v>
+        <v>0.3874548946256777</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B197" t="n">
-        <v>0.8593014964310981</v>
+        <v>0.7017635195860148</v>
       </c>
       <c r="C197" t="n">
-        <v>11.71228408813477</v>
+        <v>3.672436475753784</v>
       </c>
       <c r="D197" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E197" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F197" t="n">
-        <v>0.1</v>
+        <v>0.4208682249697902</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B198" t="n">
-        <v>0.850257047130244</v>
+        <v>0.6940025320822131</v>
       </c>
       <c r="C198" t="n">
-        <v>12.46518039703369</v>
+        <v>25.47240447998047</v>
       </c>
       <c r="D198" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F198" t="n">
-        <v>0.1</v>
+        <v>0.3945626575245756</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
@@ -4998,22 +4998,22 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B199" t="n">
-        <v>0.8398099908909723</v>
+        <v>0.6438470956561666</v>
       </c>
       <c r="C199" t="n">
-        <v>13.33483123779297</v>
+        <v>29.64753913879395</v>
       </c>
       <c r="D199" t="n">
         <v>3</v>
       </c>
       <c r="E199" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F199" t="n">
-        <v>0.1</v>
+        <v>0.4960897085493666</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -5021,13 +5021,13 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>0.8288545147129674</v>
+        <v>0.8234873056395502</v>
       </c>
       <c r="C200" t="n">
-        <v>14.2468090057373</v>
+        <v>2.450375556945801</v>
       </c>
       <c r="D200" t="n">
         <v>3</v>
@@ -5036,21 +5036,21 @@
         <v>256</v>
       </c>
       <c r="F200" t="n">
-        <v>0.1261146017547513</v>
+        <v>0.1</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B201" t="n">
-        <v>0.8165567967839926</v>
+        <v>0.8034622031387368</v>
       </c>
       <c r="C201" t="n">
-        <v>15.27052021026611</v>
+        <v>16.36056137084961</v>
       </c>
       <c r="D201" t="n">
         <v>2</v>
@@ -5059,7 +5059,7 @@
         <v>256</v>
       </c>
       <c r="F201" t="n">
-        <v>0.3272551105786884</v>
+        <v>0.2862673901469064</v>
       </c>
       <c r="G201" t="n">
         <v>0</v>
@@ -5067,22 +5067,22 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B202" t="n">
-        <v>0.8066862244929778</v>
+        <v>0.8020119690396863</v>
       </c>
       <c r="C202" t="n">
-        <v>16.09218406677246</v>
+        <v>16.48128509521484</v>
       </c>
       <c r="D202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E202" t="n">
         <v>256</v>
       </c>
       <c r="F202" t="n">
-        <v>0.3686661605631503</v>
+        <v>0.3667595891678547</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -5090,59 +5090,59 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B203" t="n">
-        <v>0.7998895192276773</v>
+        <v>0.8006942186027415</v>
       </c>
       <c r="C203" t="n">
-        <v>16.6579647064209</v>
+        <v>2.702526569366455</v>
       </c>
       <c r="D203" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E203" t="n">
         <v>256</v>
       </c>
       <c r="F203" t="n">
-        <v>0.4544157418904817</v>
+        <v>0.1</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B204" t="n">
-        <v>0.793196138921734</v>
+        <v>0.7956445970633641</v>
       </c>
       <c r="C204" t="n">
-        <v>17.21514701843262</v>
+        <v>2.555007696151733</v>
       </c>
       <c r="D204" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E204" t="n">
         <v>256</v>
       </c>
       <c r="F204" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B205" t="n">
-        <v>0.7895477556840541</v>
+        <v>0.7922552657290338</v>
       </c>
       <c r="C205" t="n">
-        <v>17.51885414123535</v>
+        <v>2.668810129165649</v>
       </c>
       <c r="D205" t="n">
         <v>2</v>
@@ -5151,53 +5151,53 @@
         <v>256</v>
       </c>
       <c r="F205" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B206" t="n">
-        <v>0.7836264078280488</v>
+        <v>0.7699256768872471</v>
       </c>
       <c r="C206" t="n">
-        <v>18.01177215576172</v>
+        <v>3.005516529083252</v>
       </c>
       <c r="D206" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F206" t="n">
-        <v>0.5</v>
+        <v>0.2545908678458662</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B207" t="n">
-        <v>0.7827853721283978</v>
+        <v>0.7490418064713302</v>
       </c>
       <c r="C207" t="n">
-        <v>18.08177757263184</v>
+        <v>20.89072036743164</v>
       </c>
       <c r="D207" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E207" t="n">
         <v>256</v>
       </c>
       <c r="F207" t="n">
-        <v>0.3020984360486816</v>
+        <v>0.1</v>
       </c>
       <c r="G207" t="n">
         <v>0</v>
@@ -5205,22 +5205,22 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B208" t="n">
-        <v>0.781275010423334</v>
+        <v>0.7231925617305697</v>
       </c>
       <c r="C208" t="n">
-        <v>2.657608985900879</v>
+        <v>3.32520866394043</v>
       </c>
       <c r="D208" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E208" t="n">
         <v>128</v>
       </c>
       <c r="F208" t="n">
-        <v>0.1</v>
+        <v>0.3291039262277637</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -5228,137 +5228,137 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B209" t="n">
-        <v>0.771282473455745</v>
+        <v>0.7223375735974429</v>
       </c>
       <c r="C209" t="n">
-        <v>19.03932762145996</v>
+        <v>3.428511142730713</v>
       </c>
       <c r="D209" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E209" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F209" t="n">
-        <v>0.2712489310389558</v>
+        <v>0.4762097638106625</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B210" t="n">
-        <v>0.7702520949060558</v>
+        <v>0.7212263080341048</v>
       </c>
       <c r="C210" t="n">
-        <v>2.960870504379272</v>
+        <v>23.20619773864746</v>
       </c>
       <c r="D210" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E210" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F210" t="n">
-        <v>0.5</v>
+        <v>0.3809709696272221</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B211" t="n">
-        <v>0.7694908702574966</v>
+        <v>0.7032876965826524</v>
       </c>
       <c r="C211" t="n">
-        <v>2.92022442817688</v>
+        <v>24.69947242736816</v>
       </c>
       <c r="D211" t="n">
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F211" t="n">
-        <v>0.1</v>
+        <v>0.4592028472900599</v>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B212" t="n">
-        <v>0.7636541404445908</v>
+        <v>0.6698720166559013</v>
       </c>
       <c r="C212" t="n">
-        <v>2.851769208908081</v>
+        <v>27.48112869262695</v>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E212" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="F212" t="n">
-        <v>0.4386245941429873</v>
+        <v>0.3191351132185927</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B213" t="n">
-        <v>0.7599967004296392</v>
+        <v>0.6525325780737093</v>
       </c>
       <c r="C213" t="n">
-        <v>2.738439321517944</v>
+        <v>28.92452430725098</v>
       </c>
       <c r="D213" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E213" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F213" t="n">
-        <v>0.2976947349527711</v>
+        <v>0.4299481858002193</v>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B214" t="n">
-        <v>0.7576813367960032</v>
+        <v>0.5446264469227045</v>
       </c>
       <c r="C214" t="n">
-        <v>20.17153739929199</v>
+        <v>37.90704727172852</v>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E214" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="F214" t="n">
-        <v>0.1</v>
+        <v>0.3777754711057834</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>
@@ -5366,45 +5366,45 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B215" t="n">
-        <v>0.7461430059294141</v>
+        <v>0.8483936504257878</v>
       </c>
       <c r="C215" t="n">
-        <v>2.843790292739868</v>
+        <v>12.62029647827148</v>
       </c>
       <c r="D215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E215" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F215" t="n">
-        <v>0.138612366264245</v>
+        <v>0.1824144872401465</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B216" t="n">
-        <v>0.7407674870743888</v>
+        <v>0.8462969483873077</v>
       </c>
       <c r="C216" t="n">
-        <v>21.57951164245605</v>
+        <v>12.79483318328857</v>
       </c>
       <c r="D216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E216" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F216" t="n">
-        <v>0.5</v>
+        <v>0.1178007571901904</v>
       </c>
       <c r="G216" t="n">
         <v>0</v>
@@ -5412,22 +5412,22 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B217" t="n">
-        <v>0.7340444194264105</v>
+        <v>0.8370748846318867</v>
       </c>
       <c r="C217" t="n">
-        <v>22.13916778564453</v>
+        <v>13.56251239776611</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E217" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F217" t="n">
-        <v>0.4141340591266695</v>
+        <v>0.1261146017547513</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>
@@ -5435,13 +5435,13 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7338084330362904</v>
+        <v>0.8311564802580208</v>
       </c>
       <c r="C218" t="n">
-        <v>3.263331174850464</v>
+        <v>14.05518531799316</v>
       </c>
       <c r="D218" t="n">
         <v>4</v>
@@ -5450,30 +5450,30 @@
         <v>256</v>
       </c>
       <c r="F218" t="n">
-        <v>0.1</v>
+        <v>0.2712489310389558</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B219" t="n">
-        <v>0.724079531065593</v>
+        <v>0.8274343550201828</v>
       </c>
       <c r="C219" t="n">
-        <v>22.96868324279785</v>
+        <v>14.36502838134766</v>
       </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E219" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F219" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>
@@ -5481,22 +5481,22 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B220" t="n">
-        <v>0.7177919311541685</v>
+        <v>0.8266454165862966</v>
       </c>
       <c r="C220" t="n">
-        <v>23.49208641052246</v>
+        <v>14.43070316314697</v>
       </c>
       <c r="D220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E220" t="n">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="F220" t="n">
-        <v>0.5</v>
+        <v>0.1130204967924452</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
@@ -5504,116 +5504,277 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B221" t="n">
-        <v>0.7044767070512592</v>
+        <v>0.8259262672024736</v>
       </c>
       <c r="C221" t="n">
-        <v>2.946134328842163</v>
+        <v>14.49056720733643</v>
       </c>
       <c r="D221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E221" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F221" t="n">
-        <v>0.1318581908036244</v>
+        <v>0.1258995309678819</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B222" t="n">
-        <v>0.6607651346961876</v>
+        <v>0.8192205167240907</v>
       </c>
       <c r="C222" t="n">
-        <v>3.905072927474976</v>
+        <v>15.04877948760986</v>
       </c>
       <c r="D222" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E222" t="n">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="F222" t="n">
-        <v>0.150863988680511</v>
+        <v>0.1</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B223" t="n">
-        <v>0.4897275301255678</v>
+        <v>0.8184120674644242</v>
       </c>
       <c r="C223" t="n">
-        <v>5.037534236907959</v>
+        <v>15.11607646942139</v>
       </c>
       <c r="D223" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E223" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F223" t="n">
-        <v>0.4998040995306157</v>
+        <v>0.101797039609659</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B224" t="n">
-        <v>0.4198014677895187</v>
+        <v>0.7942740562054593</v>
       </c>
       <c r="C224" t="n">
-        <v>48.29795837402344</v>
+        <v>2.736851215362549</v>
       </c>
       <c r="D224" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E224" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F224" t="n">
-        <v>0.4415901170557955</v>
+        <v>0.2976947349527711</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B225" t="n">
-        <v>0.3775527367257591</v>
+        <v>0.772240244254119</v>
       </c>
       <c r="C225" t="n">
-        <v>51.81490325927734</v>
+        <v>2.735832691192627</v>
       </c>
       <c r="D225" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E225" t="n">
         <v>128</v>
       </c>
       <c r="F225" t="n">
-        <v>0.5</v>
+        <v>0.138612366264245</v>
       </c>
       <c r="G225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.7600295067347104</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2.749094009399414</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1</v>
+      </c>
+      <c r="E226" t="n">
+        <v>256</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.4386245941429873</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.7440507755085701</v>
+      </c>
+      <c r="C227" t="n">
+        <v>3.006396532058716</v>
+      </c>
+      <c r="D227" t="n">
+        <v>3</v>
+      </c>
+      <c r="E227" t="n">
+        <v>64</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.1318581908036244</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.7319311577426779</v>
+      </c>
+      <c r="C228" t="n">
+        <v>22.3150806427002</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>256</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.101218249698</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.7309937868945389</v>
+      </c>
+      <c r="C229" t="n">
+        <v>22.39311218261719</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+      <c r="E229" t="n">
+        <v>128</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.4141340591266695</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.7007868829892907</v>
+      </c>
+      <c r="C230" t="n">
+        <v>3.742539405822754</v>
+      </c>
+      <c r="D230" t="n">
+        <v>4</v>
+      </c>
+      <c r="E230" t="n">
+        <v>32</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.150863988680511</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.6496798361291776</v>
+      </c>
+      <c r="C231" t="n">
+        <v>29.1619987487793</v>
+      </c>
+      <c r="D231" t="n">
+        <v>4</v>
+      </c>
+      <c r="E231" t="n">
+        <v>256</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.3020984360486816</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.5109736719447753</v>
+      </c>
+      <c r="C232" t="n">
+        <v>40.70842742919922</v>
+      </c>
+      <c r="D232" t="n">
+        <v>4</v>
+      </c>
+      <c r="E232" t="n">
+        <v>64</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.4415901170557955</v>
+      </c>
+      <c r="G232" t="n">
         <v>0</v>
       </c>
     </row>
